--- a/example/info/03 temp repr info.xlsx
+++ b/example/info/03 temp repr info.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,16 @@
           <t>nr averaged</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>mean_E</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>mean_UPL_1</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -462,6 +472,12 @@
       <c r="C2" t="n">
         <v>19</v>
       </c>
+      <c r="D2" t="n">
+        <v>59652.66002461074</v>
+      </c>
+      <c r="E2" t="n">
+        <v>163.2461647478644</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -475,6 +491,12 @@
       <c r="C3" t="n">
         <v>19</v>
       </c>
+      <c r="D3" t="n">
+        <v>59855.77924476722</v>
+      </c>
+      <c r="E3" t="n">
+        <v>145.2313242222233</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -488,6 +510,12 @@
       <c r="C4" t="n">
         <v>12</v>
       </c>
+      <c r="D4" t="n">
+        <v>49741.58456709496</v>
+      </c>
+      <c r="E4" t="n">
+        <v>130.8866971883324</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -501,6 +529,12 @@
       <c r="C5" t="n">
         <v>19</v>
       </c>
+      <c r="D5" t="n">
+        <v>48391.35342360516</v>
+      </c>
+      <c r="E5" t="n">
+        <v>134.8347027374249</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -514,6 +548,12 @@
       <c r="C6" t="n">
         <v>12</v>
       </c>
+      <c r="D6" t="n">
+        <v>40860.56796752069</v>
+      </c>
+      <c r="E6" t="n">
+        <v>86.38721691376323</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -526,6 +566,12 @@
       </c>
       <c r="C7" t="n">
         <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>43041.85017422398</v>
+      </c>
+      <c r="E7" t="n">
+        <v>56.33522942889576</v>
       </c>
     </row>
   </sheetData>
